--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -1995,7 +1995,7 @@
     <t>choerodon.code.site.manager.pipeline.template</t>
   </si>
   <si>
-    <t>应用模板</t>
+    <t>流水线模板</t>
   </si>
   <si>
     <t>menu</t>
@@ -2496,9 +2496,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2569,6 +2569,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2576,15 +2598,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2599,68 +2622,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2676,8 +2637,46 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2700,14 +2699,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2796,7 +2796,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2808,7 +2832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2820,19 +2844,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2844,67 +2898,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2916,37 +2916,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2964,19 +2946,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3083,13 +3083,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3105,6 +3109,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3128,31 +3141,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3180,151 +3169,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4035,8 +4035,8 @@
   <sheetPr/>
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="261">
   <si>
     <r>
       <rPr>
@@ -2025,6 +2025,36 @@
     <t>choerodon.code.site.manager|choerodon.code.site.manager.pipeline.template|choerodon.code.site.manager.pipeline.template.ps.default</t>
   </si>
   <si>
+    <t>iam_menu-154</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>iam_menu-155</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager.pipeline.template</t>
+  </si>
+  <si>
+    <t>/iam/org-pipeline-template</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager|choerodon.code.organization.manager.pipeline.template</t>
+  </si>
+  <si>
+    <t>iam_menu-156</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager.pipeline.template.ps.default</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager|choerodon.code.organization.manager.pipeline.template|choerodon.code.organization.manager.pipeline.template.ps.default</t>
+  </si>
+  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -2331,9 +2361,6 @@
     <t>abcf</t>
   </si>
   <si>
-    <t>organization</t>
-  </si>
-  <si>
     <t>iam_role-9</t>
   </si>
   <si>
@@ -2488,6 +2515,9 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>iam_role_permission-18</t>
   </si>
 </sst>
 </file>
@@ -2495,8 +2525,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2569,9 +2599,29 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2591,30 +2641,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2628,11 +2665,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2641,21 +2677,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2675,6 +2696,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -2690,14 +2727,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2707,14 +2736,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2796,7 +2826,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2808,67 +2874,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2886,7 +2904,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2898,7 +2916,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2916,19 +2970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2940,19 +2982,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2964,19 +3006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3084,21 +3114,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3109,15 +3124,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3141,7 +3147,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3163,15 +3202,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3183,148 +3213,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3791,7 +3821,7 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4033,10 +4063,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4298,6 +4328,154 @@
         <v>83</v>
       </c>
       <c r="X10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:24">
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="5:24">
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" t="str">
+        <f>E11</f>
+        <v>iam_menu-154</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12">
+        <v>130</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>102</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:24">
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" t="str">
+        <f>E12</f>
+        <v>iam_menu-155</v>
+      </c>
+      <c r="L13" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>105</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13">
         <v>1</v>
       </c>
     </row>
@@ -4355,19 +4533,19 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4379,10 +4557,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4423,66 +4601,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O7" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -4496,25 +4674,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -4528,19 +4706,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -4554,19 +4732,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F11" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" t="s">
         <v>124</v>
       </c>
-      <c r="G11" t="s">
-        <v>114</v>
-      </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -4580,25 +4758,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -4612,22 +4790,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -4641,22 +4819,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -4670,22 +4848,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -4699,22 +4877,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -4728,25 +4906,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -4760,25 +4938,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -4792,25 +4970,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -4824,19 +5002,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -4850,25 +5028,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F21" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J21" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K21" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -4882,25 +5060,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -4914,25 +5092,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J23" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="K23" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -4946,19 +5124,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G24" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -4972,22 +5150,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J25" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -5001,22 +5179,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="F26" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G26" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J26" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -5036,33 +5214,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I28" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -5073,7 +5251,23 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>176</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" t="str">
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-155</v>
+      </c>
+      <c r="H30" t="str">
+        <f>菜单标签数据!$E$8</f>
+        <v>iam_label-8</v>
       </c>
     </row>
   </sheetData>
@@ -5085,10 +5279,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5131,10 +5325,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -5149,72 +5343,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="J7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="O7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="R7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="S7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="T7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="X7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Y7" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="I8" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -5229,7 +5423,7 @@
         <v>81</v>
       </c>
       <c r="N8" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
         <v>81</v>
@@ -5250,10 +5444,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="V8" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -5261,22 +5455,22 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="H9" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="I9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="J9" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
         <v>81</v>
@@ -5288,7 +5482,7 @@
         <v>81</v>
       </c>
       <c r="N9" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
         <v>81</v>
@@ -5309,10 +5503,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="V9" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -5320,19 +5514,19 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="G10" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="H10" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="J10" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
         <v>81</v>
@@ -5345,7 +5539,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N10" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
         <v>81</v>
@@ -5366,36 +5560,36 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="V10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Y10" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G11" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="J11" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="K11" t="s">
         <v>81</v>
@@ -5408,7 +5602,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N11" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="O11" t="s">
         <v>81</v>
@@ -5429,36 +5623,36 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="V11" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Y11" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="F12" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="H12" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="J12" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="K12" t="s">
         <v>81</v>
@@ -5471,7 +5665,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N12" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="O12" t="s">
         <v>81</v>
@@ -5492,36 +5686,36 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="V12" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="Y12" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F13" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="G13" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H13" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="J13" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s">
         <v>81</v>
@@ -5534,7 +5728,7 @@
         <v>iam_role-9</v>
       </c>
       <c r="N13" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="O13" t="s">
         <v>81</v>
@@ -5555,33 +5749,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="V13" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="Y13" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="F14" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H14" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -5597,7 +5791,7 @@
         <v>iam_role-8</v>
       </c>
       <c r="N14" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -5618,10 +5812,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="V14" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -5635,33 +5829,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H16" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="I16" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -5672,13 +5866,35 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="I17" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="J17" t="s">
-        <v>250</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10">
+      <c r="E18" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G18" t="str">
+        <f>菜单SAAS版!$E$12</f>
+        <v>iam_menu-155</v>
+      </c>
+      <c r="H18" t="s">
+        <v>257</v>
+      </c>
+      <c r="I18" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="261">
   <si>
     <r>
       <rPr>
@@ -2526,8 +2526,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2602,6 +2602,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -2609,12 +2616,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2628,14 +2667,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2649,16 +2696,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2673,22 +2720,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2697,16 +2728,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2721,30 +2744,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2826,7 +2826,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2838,175 +3000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3128,17 +3128,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3152,35 +3166,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3200,161 +3196,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3825,21 +3825,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3854,7 +3854,7 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -3868,7 +3868,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
@@ -3966,7 +3966,7 @@
       <c r="D14" s="23"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
@@ -3989,7 +3989,7 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
@@ -4065,15 +4065,19 @@
   <sheetPr/>
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="21.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="53" customWidth="1"/>
-    <col min="11" max="11" width="15.9111111111111" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="62.0833333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="15.9097222222222" customWidth="1"/>
+    <col min="16" max="16" width="17.0833333333333" customWidth="1"/>
+    <col min="19" max="19" width="130.666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4359,8 +4363,6 @@
       <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
       <c r="Q11">
         <v>0</v>
       </c>
@@ -4494,10 +4496,10 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="17.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4559,13 +4561,19 @@
   <sheetPr/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="7" max="7" width="14.2518518518519" customWidth="1"/>
+    <col min="4" max="4" width="22.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.1666666666667" customWidth="1"/>
+    <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="13.1666666666667" customWidth="1"/>
+    <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5254,7 +5262,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="5:8">
+    <row r="30" spans="5:9">
       <c r="E30" t="s">
         <v>185</v>
       </c>
@@ -5268,6 +5276,9 @@
       <c r="H30" t="str">
         <f>菜单标签数据!$E$8</f>
         <v>iam_label-8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5281,15 +5292,16 @@
   <sheetPr/>
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="24.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="21.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="19.7481481481481" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2526,8 +2526,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2602,65 +2602,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2674,33 +2621,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2719,17 +2642,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2742,11 +2656,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2826,19 +2826,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2856,13 +2880,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2874,25 +2946,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2904,43 +2982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2958,55 +3000,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3132,16 +3132,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3153,30 +3159,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3196,165 +3178,183 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4065,8 +4065,8 @@
   <sheetPr/>
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -4353,6 +4353,9 @@
       </c>
       <c r="J11" t="s">
         <v>98</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
       </c>
       <c r="L11" t="s">
         <v>80</v>
@@ -4561,7 +4564,7 @@
   <sheetPr/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B10" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="333">
   <si>
     <r>
       <rPr>
@@ -2055,6 +2055,18 @@
     <t>choerodon.code.organization.manager|choerodon.code.organization.manager.pipeline.template|choerodon.code.organization.manager.pipeline.template.ps.default</t>
   </si>
   <si>
+    <t>iam_menu-157</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager.pipeline.template.createOrEdit</t>
+  </si>
+  <si>
+    <t>创建修改平台层流水线创建修改平台层流水线</t>
+  </si>
+  <si>
+    <t>choerodon.code.site.manager|choerodon.code.site.manager.pipeline.template|choerodon.code.site.manager.pipeline.template.createOrEdit</t>
+  </si>
+  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -2067,6 +2079,210 @@
     <t>#permission_code</t>
   </si>
   <si>
+    <t>iam_menu_permission-8</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-pipeline-template.pagePipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-9</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-pipeline-template.enablePipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-10</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-pipeline-template.invalidPipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-11</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-pipeline-template.deletePipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-12</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-pipeline-template.createPipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-13</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-pipeline-template.updatePipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-14</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-pipeline-template.checkPipelineTemplateName</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-15</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-pipeline-template.queryPipelineTemplateById</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-16</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-variable.queryCiVariableByPipelineTemplateId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-17</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-category.pageTemplateCategory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-18</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-category.createTemplateCategory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-19</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-category.updateTemplateCategory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-20</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-category.checkTemplateCategoryName</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-21</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-category.deleteTemplateCategory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-22</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-job.pageTemplateJobs</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-23</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-job.checkJobTemplateByJobId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-24</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-job.deleteTemplateJob</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-25</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-job.createTemplateJob</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-26</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-job.updateTemplateJob</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-27</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-job-group.pageTemplateJobGroup</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-28</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-job-group.createTemplateJobGroup</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-29</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-job-group.updateTemplateJobGroup</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-30</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-job-group.deleteTemplateJobGroup</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devops-service.ci-site-template-step.pageTemplateStep
+</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-32</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-step.createTemplateStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devops-service.ci-site-template-step.updateTemplateStep
+</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devops-service.ci-site-template-step.deleteTemplateStep
+</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devops-service.ci-site-template-step.checkStepTemplateByStepId
+</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devops-service.ci-site-template-step-category.pageTemplateStepCategory
+</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-37</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-step-category.createTemplateStepCategory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-38</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-step-category.updateTemplateStepCategory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devops-service.ci-site-template-step-category.checkTemplateStepCategory
+</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-40</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-step-category.deleteTemplateStepCategory</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2518,6 +2734,12 @@
   </si>
   <si>
     <t>iam_role_permission-18</t>
+  </si>
+  <si>
+    <t>iam_role_permission-19</t>
+  </si>
+  <si>
+    <t>iam_role_permission-20</t>
   </si>
 </sst>
 </file>
@@ -2526,8 +2748,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2602,12 +2824,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2620,45 +2872,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2672,55 +2904,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2742,11 +2927,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2826,7 +3048,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2838,7 +3072,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2850,19 +3114,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2874,19 +3138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2904,25 +3162,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2934,19 +3198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2958,25 +3216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2988,25 +3228,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3113,6 +3335,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3124,15 +3366,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3152,13 +3385,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3186,186 +3432,163 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3821,159 +4044,159 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="13"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="30" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3983,38 +4206,38 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -4022,25 +4245,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4063,20 +4286,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="6" max="6" width="62.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="21.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="62.0814814814815" customWidth="1"/>
     <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="15.9097222222222" customWidth="1"/>
-    <col min="16" max="16" width="17.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="15.9111111111111" customWidth="1"/>
+    <col min="16" max="16" width="17.0814814814815" customWidth="1"/>
     <col min="19" max="19" width="130.666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4182,7 +4405,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="5:24">
+    <row r="8" s="7" customFormat="1" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -4481,6 +4704,48 @@
         <v>83</v>
       </c>
       <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="5:24">
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" t="str">
+        <f>E9</f>
+        <v>iam_menu-152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14">
         <v>1</v>
       </c>
     </row>
@@ -4493,16 +4758,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="17.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4538,19 +4803,415 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7">
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7">
+      <c r="E10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7">
+      <c r="E11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7">
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="G12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7">
+      <c r="E13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="G13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7">
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="G14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7">
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7">
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F16" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" t="s">
+        <v>152</v>
+      </c>
+      <c r="F27" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7">
+      <c r="E30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7">
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" t="s">
+        <v>174</v>
+      </c>
+      <c r="F38" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F39" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G40" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4564,19 +5225,19 @@
   <sheetPr/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="22.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="21.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.4148148148148" customWidth="1"/>
+    <col min="5" max="5" width="21.162962962963" customWidth="1"/>
     <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="13.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
+    <col min="9" max="9" width="13.1703703703704" customWidth="1"/>
     <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="15.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4612,66 +5273,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="N7" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="O7" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="G8" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="J8" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -4685,25 +5346,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="K9" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -4717,19 +5378,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -4743,19 +5404,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -4769,25 +5430,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="G12" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -4801,22 +5462,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="F13" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -4830,22 +5491,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>141</v>
+        <v>211</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -4859,22 +5520,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="G15" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -4888,22 +5549,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -4917,25 +5578,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="K17" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -4949,25 +5610,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -4981,25 +5642,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -5013,19 +5674,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -5039,25 +5700,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>233</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -5071,25 +5732,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -5103,25 +5764,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -5135,19 +5796,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -5161,22 +5822,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -5190,22 +5851,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="J26" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -5225,33 +5886,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="I28" t="s">
-        <v>184</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -5262,15 +5923,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>194</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -5281,7 +5942,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -5293,18 +5954,18 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="17.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="24.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="21.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="19.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5340,10 +6001,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>257</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -5358,72 +6019,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>192</v>
+        <v>262</v>
       </c>
       <c r="O7" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="Q7" t="s">
-        <v>195</v>
+        <v>265</v>
       </c>
       <c r="R7" t="s">
-        <v>196</v>
+        <v>266</v>
       </c>
       <c r="S7" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
       <c r="T7" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="X7" t="s">
-        <v>201</v>
+        <v>271</v>
       </c>
       <c r="Y7" t="s">
-        <v>202</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="H8" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="I8" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -5459,10 +6120,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="V8" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -5470,19 +6131,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>208</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="H9" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="I9" t="s">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -5518,10 +6179,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="V9" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -5529,16 +6190,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="F10" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="G10" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="H10" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -5575,33 +6236,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="V10" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="Y10" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="H11" t="s">
-        <v>224</v>
+        <v>294</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -5638,33 +6299,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="V11" t="s">
-        <v>226</v>
+        <v>296</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>227</v>
+        <v>297</v>
       </c>
       <c r="Y11" t="s">
-        <v>228</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="F12" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="H12" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -5701,33 +6362,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
       <c r="V12" t="s">
-        <v>234</v>
+        <v>304</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="Y12" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="F13" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="G13" t="s">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="H13" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -5764,33 +6425,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="V13" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="Y13" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="G14" t="s">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="H14" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -5827,10 +6488,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="V14" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -5844,33 +6505,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>253</v>
+        <v>323</v>
       </c>
       <c r="H16" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="I16" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>256</v>
+        <v>326</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -5881,18 +6542,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="I17" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="J17" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -5903,13 +6564,57 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>257</v>
+        <v>327</v>
       </c>
       <c r="I18" t="s">
-        <v>258</v>
+        <v>328</v>
       </c>
       <c r="J18" t="s">
-        <v>259</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10">
+      <c r="E19" t="s">
+        <v>331</v>
+      </c>
+      <c r="F19" t="str">
+        <f>角色!$E$8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="G19" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="H19" t="s">
+        <v>327</v>
+      </c>
+      <c r="I19" t="s">
+        <v>328</v>
+      </c>
+      <c r="J19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10">
+      <c r="E20" t="s">
+        <v>332</v>
+      </c>
+      <c r="F20" t="str">
+        <f>角色!$E$8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="G20" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="H20" t="s">
+        <v>327</v>
+      </c>
+      <c r="I20" t="s">
+        <v>328</v>
+      </c>
+      <c r="J20" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="388">
   <si>
     <r>
       <rPr>
@@ -2067,6 +2067,18 @@
     <t>choerodon.code.site.manager|choerodon.code.site.manager.pipeline.template|choerodon.code.site.manager.pipeline.template.createOrEdit</t>
   </si>
   <si>
+    <t>iam_menu-158</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager.pipeline.template.createOrEdit</t>
+  </si>
+  <si>
+    <t>创建修改组织层流水线页面</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization.manager|choerodon.code.organization.manager.pipeline.template|choerodon.code.organization.manager.pipeline.template.ps.default|choerodon.code.organization.manager.pipeline.template.createOrEdit</t>
+  </si>
+  <si>
     <t>菜单权限</t>
   </si>
   <si>
@@ -2283,6 +2295,156 @@
     <t>devops-service.ci-site-template-step-category.deleteTemplateStepCategory</t>
   </si>
   <si>
+    <t>iam_menu_permission-41</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-pipeline.queryPipelineTemplateById</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-42</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-pipeline.checkPipelineTemplateName</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-43</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-pipeline.createPipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-44</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-pipeline.updatePipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-45</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-46</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-job-group.listTemplateJobGroup</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-47</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-job.queryTemplateJobsByGroupId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-48</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-pipeline.pagePipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-49</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-pipeline.enablePipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-50</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-pipeline.invalidPipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-51</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-job.pageTemplateJob</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-52</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-job-group.pageTemplateJobGroup</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-53</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-54</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-job.listTemplateJobs</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-55</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-job.createTemplateJob</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-56</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-job.updateTemplateJob</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-57</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-58</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-job.checkJobTemplateByJobId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-59</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-job.deleteTemplateJob</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-60</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-step.pageTemplateStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-61</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-step.createTemplateStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-62</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-step.updateTemplateStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-63</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-step-category.pageTemplateStepCategory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-64</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-step.checkStepTemplateByStepId</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-65</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-step.deleteTemplateStep</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-66</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-67</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-job.queryTemplateByJobById</t>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
@@ -2740,6 +2902,9 @@
   </si>
   <si>
     <t>iam_role_permission-20</t>
+  </si>
+  <si>
+    <t>iam_role_permission-21</t>
   </si>
 </sst>
 </file>
@@ -2747,9 +2912,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2824,29 +2989,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2866,7 +3024,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2874,23 +3047,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2905,31 +3062,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2944,7 +3093,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2952,21 +3116,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3048,13 +3213,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3066,7 +3243,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3078,19 +3339,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3102,133 +3387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3335,11 +3500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3355,31 +3526,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3404,22 +3560,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3432,151 +3582,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4286,10 +4451,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4749,6 +4914,51 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="5:24">
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" t="str">
+        <f>E12</f>
+        <v>iam_menu-155</v>
+      </c>
+      <c r="L15" t="s">
+        <v>94</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>113</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>83</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4758,10 +4968,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -4803,415 +5013,739 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F8" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F9" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F10" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F11" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F12" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F13" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F14" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F15" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="5:7">
       <c r="E16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F16" t="str">
         <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F17" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F18" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F19" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F20" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F21" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F22" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F23" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F24" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F25" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F26" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F27" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G27" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F28" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G28" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F29" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="E30" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F30" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F31" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F32" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G32" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F33" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F34" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F35" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F36" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F37" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F38" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G38" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F39" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F40" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7">
+      <c r="E43" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G44" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7">
+      <c r="E45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7">
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7">
+      <c r="E47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G47" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7">
+      <c r="E48" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G49" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50" t="s">
+        <v>201</v>
+      </c>
+      <c r="F50" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G50" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G51" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52" t="s">
+        <v>205</v>
+      </c>
+      <c r="F52" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54" t="s">
+        <v>208</v>
+      </c>
+      <c r="F54" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G54" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="E55" t="s">
+        <v>210</v>
+      </c>
+      <c r="F55" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G55" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="E57" t="s">
+        <v>214</v>
+      </c>
+      <c r="F57" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="E58" t="s">
+        <v>215</v>
+      </c>
+      <c r="F58" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7">
+      <c r="E59" t="s">
+        <v>217</v>
+      </c>
+      <c r="F59" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G59" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7">
+      <c r="E60" t="s">
+        <v>219</v>
+      </c>
+      <c r="F60" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7">
+      <c r="E61" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7">
+      <c r="E62" t="s">
+        <v>223</v>
+      </c>
+      <c r="F62" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7">
+      <c r="E63" t="s">
+        <v>225</v>
+      </c>
+      <c r="F63" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G63" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7">
+      <c r="E64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G64" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66" t="s">
+        <v>231</v>
+      </c>
+      <c r="F66" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7">
+      <c r="E67" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G67" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5273,66 +5807,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="H7" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="K7" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="L7" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="M7" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="N7" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="O7" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="F8" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="J8" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="K8" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -5346,25 +5880,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="G9" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="J9" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="K9" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -5378,19 +5912,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -5404,19 +5938,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="G11" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -5430,25 +5964,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="J12" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="K12" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -5462,22 +5996,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="G13" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="J13" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -5491,22 +6025,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="G14" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="J14" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -5520,22 +6054,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="F15" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="J15" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -5549,22 +6083,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G16" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="J16" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -5578,25 +6112,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="F17" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="G17" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="J17" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="K17" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -5610,25 +6144,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="F18" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="J18" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="K18" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -5642,25 +6176,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="F19" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="G19" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="J19" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="K19" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -5674,19 +6208,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="F20" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -5700,25 +6234,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="J21" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="K21" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -5732,25 +6266,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="G22" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="J22" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="K22" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -5764,25 +6298,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="F23" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="G23" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="K23" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -5796,19 +6330,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="F24" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -5822,22 +6356,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="G25" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="J25" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -5851,22 +6385,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="G26" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="J26" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -5886,33 +6420,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="I28" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -5923,15 +6457,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -5942,7 +6476,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5954,10 +6488,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6001,10 +6535,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6019,72 +6553,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="J7" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="O7" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="P7" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="Q7" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="R7" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="S7" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="T7" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>270</v>
+        <v>324</v>
       </c>
       <c r="X7" t="s">
-        <v>271</v>
+        <v>325</v>
       </c>
       <c r="Y7" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="F8" t="s">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="G8" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="H8" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -6120,10 +6654,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="V8" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6131,19 +6665,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="F9" t="s">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="G9" t="s">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="H9" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="I9" t="s">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -6179,10 +6713,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="V9" t="s">
-        <v>281</v>
+        <v>335</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6190,16 +6724,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>283</v>
+        <v>337</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="G10" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="H10" t="s">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -6236,33 +6770,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="V10" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="Y10" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="G11" t="s">
-        <v>293</v>
+        <v>347</v>
       </c>
       <c r="H11" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -6299,33 +6833,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>295</v>
+        <v>349</v>
       </c>
       <c r="V11" t="s">
-        <v>296</v>
+        <v>350</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="Y11" t="s">
-        <v>298</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>354</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="H12" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -6362,33 +6896,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="V12" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="Y12" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="G13" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="H13" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -6425,33 +6959,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="V13" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="Y13" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="F14" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="G14" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="H14" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -6488,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="V14" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -6505,33 +7039,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="H16" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="I16" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -6542,18 +7076,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="I17" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="J17" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -6564,18 +7098,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="I18" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="J18" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -6586,18 +7120,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="I19" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="J19" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -6608,13 +7142,35 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="I20" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="J20" t="s">
-        <v>329</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" t="s">
+        <v>387</v>
+      </c>
+      <c r="F21" t="str">
+        <f>角色!$E$8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="G21" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="H21" t="s">
+        <v>381</v>
+      </c>
+      <c r="I21" t="s">
+        <v>382</v>
+      </c>
+      <c r="J21" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="389">
   <si>
     <r>
       <rPr>
@@ -2443,6 +2443,9 @@
   </si>
   <si>
     <t>devops-service.ci-organization-template-job.queryTemplateByJobById</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-68</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2912,9 +2915,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2987,29 +2990,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3024,30 +3019,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3061,39 +3063,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3107,6 +3102,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3117,14 +3128,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3213,7 +3216,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3225,31 +3354,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3261,67 +3384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3333,67 +3396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3500,6 +3503,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3511,32 +3525,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3560,7 +3548,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3569,7 +3557,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3600,148 +3603,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4454,7 +4457,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4968,10 +4971,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -5746,6 +5749,18 @@
       </c>
       <c r="G67" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7">
+      <c r="E68" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="G68" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5807,66 +5822,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -5880,25 +5895,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J9" t="s">
+        <v>254</v>
+      </c>
+      <c r="K9" t="s">
         <v>253</v>
-      </c>
-      <c r="K9" t="s">
-        <v>252</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -5912,19 +5927,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -5938,19 +5953,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -5964,25 +5979,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -5996,22 +6011,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -6025,22 +6040,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -6054,22 +6069,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -6083,22 +6098,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -6112,25 +6127,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -6144,25 +6159,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -6176,25 +6191,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J19" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" t="s">
         <v>282</v>
-      </c>
-      <c r="K19" t="s">
-        <v>281</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -6208,19 +6223,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -6234,25 +6249,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -6266,25 +6281,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -6298,25 +6313,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F23" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -6330,19 +6345,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -6356,22 +6371,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F25" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -6385,22 +6400,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -6420,33 +6435,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6457,15 +6472,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6476,7 +6491,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6535,10 +6550,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6553,72 +6568,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="X7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Y7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -6654,10 +6669,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="V8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6665,19 +6680,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -6713,10 +6728,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="V9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6724,16 +6739,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -6770,33 +6785,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -6833,33 +6848,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="V11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -6896,33 +6911,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="V12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y12" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -6959,33 +6974,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="V13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G14" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H14" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -7022,10 +7037,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V14" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -7039,33 +7054,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -7076,18 +7091,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7098,18 +7113,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -7120,18 +7135,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I19" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -7142,18 +7157,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J20" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$8</f>
@@ -7164,13 +7179,13 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I21" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="391">
   <si>
     <r>
       <rPr>
@@ -2446,6 +2446,12 @@
   </si>
   <si>
     <t>iam_menu_permission-68</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-69</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-category.pageTemplateCategory</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2916,8 +2922,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2999,20 +3005,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3026,14 +3039,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3042,6 +3062,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3057,24 +3085,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3083,14 +3104,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3112,6 +3125,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3119,22 +3140,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3216,13 +3222,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3234,7 +3270,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3246,19 +3300,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3270,73 +3354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3354,25 +3378,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3384,19 +3402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3503,17 +3509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3525,6 +3520,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3546,9 +3550,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3558,6 +3564,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3576,175 +3606,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4971,10 +4977,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -5761,6 +5767,18 @@
       </c>
       <c r="G68" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7">
+      <c r="E69" t="s">
+        <v>235</v>
+      </c>
+      <c r="F69" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G69" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5822,66 +5840,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="O7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>252</v>
+      </c>
+      <c r="J8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" t="s">
         <v>250</v>
-      </c>
-      <c r="J8" t="s">
-        <v>251</v>
-      </c>
-      <c r="K8" t="s">
-        <v>248</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -5895,25 +5913,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -5927,19 +5945,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -5953,19 +5971,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -5979,25 +5997,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -6011,22 +6029,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -6040,22 +6058,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -6069,22 +6087,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -6098,22 +6116,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G16" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -6127,25 +6145,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -6159,25 +6177,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F18" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -6191,25 +6209,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J19" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K19" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -6223,19 +6241,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G20" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -6249,25 +6267,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F21" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G21" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -6281,25 +6299,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F22" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J22" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K22" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -6313,25 +6331,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J23" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K23" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -6345,19 +6363,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F24" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G24" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -6371,22 +6389,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F25" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J25" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -6400,22 +6418,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F26" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J26" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -6435,33 +6453,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I28" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6472,15 +6490,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6491,7 +6509,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -6550,10 +6568,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6568,72 +6586,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="R7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="S7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="T7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Y7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="I8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -6669,10 +6687,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="V8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6680,19 +6698,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -6728,10 +6746,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="V9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6739,16 +6757,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -6785,33 +6803,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="V10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Y10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H11" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -6848,33 +6866,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="V11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Y11" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F12" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G12" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -6911,33 +6929,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="V12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Y12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F13" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -6974,33 +6992,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="V13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Y13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F14" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G14" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -7037,10 +7055,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="V14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -7054,33 +7072,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -7091,18 +7109,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I17" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J17" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7113,18 +7131,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I18" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J18" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -7135,18 +7153,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I19" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J19" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -7157,18 +7175,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I20" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J20" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$8</f>
@@ -7179,13 +7197,13 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I21" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J21" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2922,8 +2922,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -2996,36 +2996,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3038,52 +3031,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3100,32 +3047,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3139,10 +3077,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3222,7 +3222,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3246,25 +3276,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3276,19 +3300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3300,25 +3312,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3330,67 +3336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3403,6 +3349,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3510,30 +3510,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3550,17 +3526,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -3570,9 +3535,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3592,6 +3559,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3606,151 +3588,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4463,7 +4463,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4979,7 +4979,7 @@
   <sheetPr/>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
@@ -6523,8 +6523,8 @@
   <sheetPr/>
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -7189,8 +7189,8 @@
         <v>390</v>
       </c>
       <c r="F21" t="str">
-        <f>角色!$E$8</f>
-        <v>iam_role-8</v>
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$15</f>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -3003,7 +3003,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3017,40 +3100,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3062,54 +3116,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3124,25 +3133,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3222,25 +3222,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3252,91 +3264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3354,7 +3282,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3366,13 +3312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3384,13 +3330,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3402,7 +3396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3510,6 +3510,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3535,11 +3550,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3555,21 +3568,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3600,9 +3598,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3612,10 +3612,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3624,133 +3624,133 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4462,8 +4462,8 @@
   <sheetPr/>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4806,7 +4806,7 @@
         <v>87</v>
       </c>
       <c r="M12">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -6523,7 +6523,7 @@
   <sheetPr/>
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="392">
   <si>
     <r>
       <rPr>
@@ -2914,6 +2914,9 @@
   </si>
   <si>
     <t>iam_role_permission-21</t>
+  </si>
+  <si>
+    <t>iam_role_permission-22</t>
   </si>
 </sst>
 </file>
@@ -2998,7 +3001,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3010,21 +3027,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3037,9 +3040,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3069,13 +3072,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -3084,9 +3080,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3118,7 +3114,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3131,9 +3135,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3222,7 +3225,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3234,43 +3357,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3288,103 +3393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3396,13 +3405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3524,6 +3527,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3572,17 +3590,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3595,63 +3609,55 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3660,97 +3666,94 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4462,8 +4465,8 @@
   <sheetPr/>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6521,10 +6524,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -7206,6 +7209,28 @@
         <v>386</v>
       </c>
     </row>
+    <row r="22" spans="5:10">
+      <c r="E22" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" t="str">
+        <f>角色!$E$10</f>
+        <v>iam_role-10</v>
+      </c>
+      <c r="G22" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="H22" t="s">
+        <v>384</v>
+      </c>
+      <c r="I22" t="s">
+        <v>385</v>
+      </c>
+      <c r="J22" t="s">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2076,7 +2076,7 @@
     <t>创建修改组织层流水线页面</t>
   </si>
   <si>
-    <t>choerodon.code.organization.manager|choerodon.code.organization.manager.pipeline.template|choerodon.code.organization.manager.pipeline.template.ps.default|choerodon.code.organization.manager.pipeline.template.createOrEdit</t>
+    <t>choerodon.code.organization.manager|choerodon.code.organization.manager.pipeline.template|choerodon.code.organization.manager.pipeline.template.createOrEdit</t>
   </si>
   <si>
     <t>菜单权限</t>
@@ -2924,8 +2924,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2999,7 +2999,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3013,28 +3027,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3042,7 +3049,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3056,6 +3063,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3064,11 +3079,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3114,7 +3128,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3122,21 +3136,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3225,12 +3225,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3243,7 +3237,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3255,7 +3261,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3267,145 +3399,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3527,17 +3527,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3590,170 +3595,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4465,8 +4465,8 @@
   <sheetPr/>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -6526,8 +6526,8 @@
   <sheetPr/>
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="400">
   <si>
     <r>
       <rPr>
@@ -2452,6 +2452,30 @@
   </si>
   <si>
     <t>devops-service.ci-organization-template-category.pageTemplateCategory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-70</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-pipeline.deletePipelineTemplate</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-71</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-step.listStepWithCategory</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-72</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-job.isNameUnique</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-73</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-step.checkTemplateStepName</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2926,8 +2950,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -2998,8 +3022,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3012,8 +3037,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3023,6 +3049,29 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3040,16 +3089,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3060,14 +3116,6 @@
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3118,32 +3166,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3225,7 +3249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3237,7 +3261,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3249,145 +3339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3405,7 +3357,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3512,6 +3536,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3527,22 +3586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3566,7 +3620,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3575,37 +3629,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3615,10 +3639,10 @@
     <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3627,133 +3651,133 @@
     <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4465,8 +4489,8 @@
   <sheetPr/>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4980,10 +5004,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -5782,6 +5806,54 @@
       </c>
       <c r="G69" t="s">
         <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70" t="s">
+        <v>237</v>
+      </c>
+      <c r="F70" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7">
+      <c r="E71" t="s">
+        <v>239</v>
+      </c>
+      <c r="F71" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G71" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7">
+      <c r="E72" t="s">
+        <v>241</v>
+      </c>
+      <c r="F72" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G72" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7">
+      <c r="E73" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G73" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5843,66 +5915,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="I7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="J7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="K7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="L7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="N7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="O7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="F8" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="G8" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J8" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K8" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -5916,25 +5988,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="G9" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J9" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="K9" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -5948,19 +6020,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="G10" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -5974,19 +6046,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F11" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G11" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -6000,25 +6072,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F12" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G12" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J12" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K12" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -6032,22 +6104,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F13" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="G13" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J13" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -6061,22 +6133,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G14" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J14" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -6090,22 +6162,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="G15" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J15" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -6119,22 +6191,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="G16" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J16" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -6148,25 +6220,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F17" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="G17" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J17" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K17" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -6180,25 +6252,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="F18" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G18" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J18" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K18" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -6212,25 +6284,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="F19" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G19" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J19" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K19" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -6244,19 +6316,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="F20" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="G20" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -6270,25 +6342,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="F21" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G21" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J21" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="K21" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -6302,25 +6374,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F22" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G22" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J22" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K22" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -6334,25 +6406,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="F23" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="G23" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J23" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="K23" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -6366,19 +6438,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="F24" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G24" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -6392,22 +6464,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="F25" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="G25" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J25" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -6421,22 +6493,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F26" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G26" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J26" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -6456,33 +6528,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="I28" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6493,15 +6565,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F30" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6512,7 +6584,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6571,10 +6643,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6589,72 +6661,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="J7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="O7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="P7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Q7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="R7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="S7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="T7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="X7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Y7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F8" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G8" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="H8" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="I8" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -6690,10 +6762,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="V8" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6701,19 +6773,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="F9" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="G9" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="H9" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="I9" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -6749,10 +6821,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="V9" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6760,16 +6832,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G10" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H10" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -6806,33 +6878,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="V10" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Y10" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F11" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G11" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H11" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -6869,33 +6941,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="V11" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="Y11" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F12" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="G12" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="H12" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -6932,33 +7004,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="V12" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Y12" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F13" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G13" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H13" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -6995,33 +7067,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="V13" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="Y13" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="F14" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="G14" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="H14" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -7058,10 +7130,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="V14" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -7075,33 +7147,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H16" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I16" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -7112,18 +7184,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="I17" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J17" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7134,18 +7206,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="I18" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J18" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -7156,18 +7228,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="I19" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J19" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -7178,18 +7250,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="I20" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J20" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7200,18 +7272,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="I21" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J21" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7222,13 +7294,13 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="I22" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="J22" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="11940" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="402">
   <si>
     <r>
       <rPr>
@@ -2476,6 +2476,12 @@
   </si>
   <si>
     <t>devops-service.ci-organization-template-step.checkTemplateStepName</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-74</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-category.queryTemplateCategorys</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2948,10 +2954,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3022,7 +3028,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3031,7 +3051,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3046,30 +3081,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3082,8 +3101,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3094,28 +3114,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3151,7 +3149,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3159,15 +3157,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3249,6 +3255,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3261,13 +3297,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3279,19 +3327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3309,7 +3345,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3321,79 +3387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3411,13 +3411,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3429,7 +3429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3538,34 +3544,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3586,17 +3581,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3618,9 +3622,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3629,56 +3635,59 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3687,97 +3696,94 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5004,10 +5010,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -5854,6 +5860,18 @@
       </c>
       <c r="G73" t="s">
         <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7">
+      <c r="E74" t="s">
+        <v>245</v>
+      </c>
+      <c r="F74" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="G74" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -5915,66 +5933,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" t="s">
         <v>260</v>
-      </c>
-      <c r="J8" t="s">
-        <v>261</v>
-      </c>
-      <c r="K8" t="s">
-        <v>258</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -5988,25 +6006,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -6020,19 +6038,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -6046,19 +6064,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -6072,25 +6090,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -6104,22 +6122,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -6133,22 +6151,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F14" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -6162,22 +6180,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -6191,22 +6209,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J16" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -6220,25 +6238,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -6252,25 +6270,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F18" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G18" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -6284,25 +6302,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F19" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K19" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -6316,19 +6334,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F20" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -6342,25 +6360,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F21" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G21" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -6374,25 +6392,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F22" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G22" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -6406,25 +6424,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G23" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -6438,19 +6456,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F24" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G24" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -6464,22 +6482,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -6493,22 +6511,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F26" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G26" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="J26" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -6528,33 +6546,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I28" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6565,15 +6583,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6584,7 +6602,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -6643,10 +6661,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6661,72 +6679,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="R7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="S7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="T7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="X7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Y7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -6762,10 +6780,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="V8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6773,19 +6791,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="I9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -6821,10 +6839,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="V9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6832,16 +6850,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -6878,33 +6896,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="V10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Y10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -6941,33 +6959,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="V11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Y11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F12" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -7004,33 +7022,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="V12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Y12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F13" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G13" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H13" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -7067,33 +7085,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="V13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Y13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G14" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H14" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -7130,10 +7148,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="V14" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -7147,33 +7165,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="I16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -7184,18 +7202,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I17" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7206,18 +7224,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I18" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J18" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -7228,18 +7246,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I19" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J19" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -7250,18 +7268,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I20" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J20" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7272,18 +7290,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J21" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7294,13 +7312,13 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I22" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J22" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11940" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="404">
   <si>
     <r>
       <rPr>
@@ -2482,6 +2482,12 @@
   </si>
   <si>
     <t>devops-service.ci-site-template-category.queryTemplateCategorys</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-75</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-category.queryTemplateCategorys</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2954,10 +2960,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3028,60 +3034,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3095,7 +3050,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3126,17 +3117,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3145,6 +3142,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3172,8 +3177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3255,25 +3261,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3285,13 +3303,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3303,13 +3327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3321,25 +3339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3357,6 +3363,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3369,37 +3399,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3411,31 +3435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3542,15 +3548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3562,6 +3559,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3581,26 +3587,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3622,6 +3613,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3631,159 +3631,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4496,7 +4502,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5010,10 +5016,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -5872,6 +5878,18 @@
       </c>
       <c r="G74" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75" t="s">
+        <v>247</v>
+      </c>
+      <c r="F75" t="str">
+        <f>菜单SAAS版!$E$13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="G75" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -5933,66 +5951,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" t="s">
         <v>262</v>
-      </c>
-      <c r="J8" t="s">
-        <v>263</v>
-      </c>
-      <c r="K8" t="s">
-        <v>260</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -6006,25 +6024,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -6038,19 +6056,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -6064,19 +6082,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -6090,25 +6108,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -6122,22 +6140,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -6151,22 +6169,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -6180,22 +6198,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -6209,22 +6227,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -6238,25 +6256,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -6270,25 +6288,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F18" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -6302,25 +6320,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G19" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -6334,19 +6352,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -6360,25 +6378,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G21" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -6392,25 +6410,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F22" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G22" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -6424,25 +6442,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F23" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G23" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -6456,19 +6474,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F24" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -6482,22 +6500,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F25" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G25" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J25" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -6511,22 +6529,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F26" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G26" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -6546,33 +6564,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I28" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6583,15 +6601,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6602,7 +6620,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6661,10 +6679,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6679,72 +6697,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="O7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="R7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="S7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="T7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="X7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Y7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -6780,10 +6798,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="V8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6791,19 +6809,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -6839,10 +6857,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="V9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6850,16 +6868,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -6896,33 +6914,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="V10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Y10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F11" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -6959,33 +6977,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="V11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Y11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -7022,33 +7040,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="V12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Y12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F13" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -7085,33 +7103,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="V13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Y13" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H14" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -7148,10 +7166,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="V14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -7165,33 +7183,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H16" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -7202,18 +7220,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I17" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J17" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7224,18 +7242,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J18" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -7246,18 +7264,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I19" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -7268,18 +7286,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I20" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J20" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7290,18 +7308,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J21" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7312,13 +7330,13 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I22" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J22" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="406">
   <si>
     <r>
       <rPr>
@@ -2488,6 +2488,12 @@
   </si>
   <si>
     <t>devops-service.ci-organization-template-category.queryTemplateCategorys</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-76</t>
+  </si>
+  <si>
+    <t>devops-service.ci-site-template-job-group.listTemplateJobGroup</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2960,10 +2966,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3034,18 +3040,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3070,18 +3076,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3100,14 +3099,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3117,23 +3108,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3161,6 +3146,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3177,9 +3177,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3261,7 +3267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3273,25 +3279,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3303,43 +3297,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3357,7 +3321,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3369,7 +3363,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3381,19 +3423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3405,19 +3435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3429,19 +3447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3548,26 +3554,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3583,15 +3589,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3622,26 +3619,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3651,10 +3657,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3663,7 +3669,7 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3672,124 +3678,124 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4005,7 +4011,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4261,21 +4267,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4290,7 +4296,7 @@
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="13"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -4304,7 +4310,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
@@ -4345,7 +4351,7 @@
       </c>
       <c r="E8" s="25"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
@@ -4359,7 +4365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
@@ -4370,7 +4376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
@@ -4402,7 +4408,7 @@
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
@@ -4425,7 +4431,7 @@
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
@@ -4433,7 +4439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
@@ -4441,7 +4447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
@@ -4449,7 +4455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
@@ -4475,7 +4481,7 @@
       </c>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
@@ -4501,18 +4507,18 @@
   <sheetPr/>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="21.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="62.0814814814815" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="62.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="15.9111111111111" customWidth="1"/>
-    <col min="16" max="16" width="17.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="15.9097222222222" customWidth="1"/>
+    <col min="16" max="16" width="17.0833333333333" customWidth="1"/>
     <col min="19" max="19" width="130.666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5016,16 +5022,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75:E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="17.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5890,6 +5896,18 @@
       </c>
       <c r="G75" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7">
+      <c r="E76" t="s">
+        <v>249</v>
+      </c>
+      <c r="F76" t="str">
+        <f>菜单SAAS版!E14</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="G76" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -5907,15 +5925,15 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="4" max="4" width="22.4148148148148" customWidth="1"/>
-    <col min="5" max="5" width="21.162962962963" customWidth="1"/>
+    <col min="4" max="4" width="22.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.1597222222222" customWidth="1"/>
     <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
-    <col min="9" max="9" width="13.1703703703704" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="13.1736111111111" customWidth="1"/>
     <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.7481481481481" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5951,66 +5969,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>266</v>
+      </c>
+      <c r="J8" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" t="s">
         <v>264</v>
-      </c>
-      <c r="J8" t="s">
-        <v>265</v>
-      </c>
-      <c r="K8" t="s">
-        <v>262</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -6024,25 +6042,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -6056,19 +6074,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -6082,19 +6100,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -6108,25 +6126,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F12" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -6140,22 +6158,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -6169,22 +6187,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -6198,22 +6216,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -6227,22 +6245,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F16" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G16" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -6256,25 +6274,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -6288,25 +6306,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K18" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -6320,25 +6338,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G19" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J19" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K19" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -6352,19 +6370,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -6378,25 +6396,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -6410,25 +6428,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F22" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G22" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K22" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -6442,25 +6460,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F23" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G23" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J23" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K23" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -6474,19 +6492,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F24" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -6500,22 +6518,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F25" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G25" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J25" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -6529,22 +6547,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F26" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G26" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -6564,33 +6582,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I28" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6601,15 +6619,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6620,7 +6638,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -6638,12 +6656,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="4" max="4" width="17.2518518518519" customWidth="1"/>
-    <col min="5" max="5" width="24.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="21.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="19.7481481481481" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6679,10 +6697,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6697,72 +6715,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="R7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="S7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="T7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="X7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Y7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -6798,10 +6816,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="V8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6809,19 +6827,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -6857,10 +6875,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="V9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6868,16 +6886,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -6914,33 +6932,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="V10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Y10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H11" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -6977,33 +6995,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="V11" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Y11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H12" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -7040,33 +7058,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="V12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Y12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -7103,33 +7121,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="V13" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Y13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -7166,10 +7184,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="V14" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -7183,33 +7201,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H16" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="I16" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -7220,18 +7238,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I17" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J17" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7242,18 +7260,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I18" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J18" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -7264,18 +7282,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I19" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J19" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -7286,18 +7304,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I20" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J20" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7308,18 +7326,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J21" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7330,13 +7348,13 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I22" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J22" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="409">
   <si>
     <r>
       <rPr>
@@ -2493,7 +2493,17 @@
     <t>iam_menu_permission-76</t>
   </si>
   <si>
-    <t>devops-service.ci-site-template-job-group.listTemplateJobGroup</t>
+    <t>iam_menu_permission-77</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devops-service.ci-organization-template-step-category.pageTemplateStepCategory
+</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-79</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2966,8 +2976,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3047,8 +3057,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3062,8 +3095,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3077,25 +3132,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3115,47 +3163,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3169,7 +3178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3177,15 +3185,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3267,19 +3277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3297,19 +3301,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3321,19 +3325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3345,7 +3337,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3363,7 +3361,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3375,19 +3385,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3399,55 +3457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3554,15 +3564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3574,6 +3575,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3610,8 +3620,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3622,6 +3634,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3640,167 +3661,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3808,6 +3818,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4011,7 +4025,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4267,155 +4281,155 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5833333333333" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="9" customWidth="1"/>
-    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
-    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
-    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="15"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="20" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="24" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" ht="52.2" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="30" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
-      <c r="C10" s="29" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
-      <c r="C11" s="23" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" ht="34.8" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4425,38 +4439,38 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="35" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="35" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="35" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -4464,25 +4478,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" ht="52.2" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="39" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4511,14 +4525,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="6" max="6" width="62.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="21.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="62.0814814814815" customWidth="1"/>
     <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="15.9097222222222" customWidth="1"/>
-    <col min="16" max="16" width="17.0833333333333" customWidth="1"/>
+    <col min="11" max="11" width="15.9111111111111" customWidth="1"/>
+    <col min="16" max="16" width="17.0814814814815" customWidth="1"/>
     <col min="19" max="19" width="130.666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4624,7 +4638,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="5:24">
+    <row r="8" s="9" customFormat="1" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -5022,16 +5036,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75:E76"/>
+    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="17.2518518518519" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5906,9 +5920,51 @@
         <f>菜单SAAS版!E14</f>
         <v>iam_menu-157</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7">
+      <c r="E77" t="s">
         <v>250</v>
       </c>
+      <c r="F77" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G77" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7">
+      <c r="E78" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" t="str">
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7">
+      <c r="E79" t="s">
+        <v>253</v>
+      </c>
+      <c r="F79" t="str">
+        <f>菜单SAAS版!E14</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7">
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="7:7">
+      <c r="G81" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5925,15 +5981,15 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="22.4166666666667" customWidth="1"/>
-    <col min="5" max="5" width="21.1597222222222" customWidth="1"/>
+    <col min="4" max="4" width="22.4148148148148" customWidth="1"/>
+    <col min="5" max="5" width="21.162962962963" customWidth="1"/>
     <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="13.1736111111111" customWidth="1"/>
+    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
+    <col min="9" max="9" width="13.1703703703704" customWidth="1"/>
     <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="15.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5969,66 +6025,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="N7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" t="s">
         <v>267</v>
-      </c>
-      <c r="K8" t="s">
-        <v>264</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -6042,25 +6098,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" t="s">
         <v>268</v>
-      </c>
-      <c r="F9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G9" t="s">
-        <v>265</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -6074,19 +6130,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -6100,19 +6156,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G11" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -6126,25 +6182,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F12" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -6158,22 +6214,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G13" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -6187,22 +6243,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J14" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -6216,22 +6272,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J15" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -6245,22 +6301,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F16" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G16" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J16" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -6274,25 +6330,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F17" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G17" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J17" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K17" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -6306,25 +6362,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G18" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K18" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -6338,25 +6394,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="F19" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G19" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J19" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K19" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -6370,19 +6426,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G20" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -6396,25 +6452,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G21" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J21" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K21" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -6428,25 +6484,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F22" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G22" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J22" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K22" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -6460,25 +6516,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F23" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G23" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J23" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K23" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -6492,19 +6548,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F24" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G24" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -6518,22 +6574,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="F25" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J25" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -6547,22 +6603,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F26" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G26" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J26" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -6582,33 +6638,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="I28" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6619,15 +6675,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6638,7 +6694,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -6656,12 +6712,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="21.25" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="17.2518518518519" customWidth="1"/>
+    <col min="5" max="5" width="24.7481481481481" customWidth="1"/>
+    <col min="6" max="6" width="21.2518518518519" customWidth="1"/>
+    <col min="7" max="7" width="19.7481481481481" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6697,10 +6753,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6715,72 +6771,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="J7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="O7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="R7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="T7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="X7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Y7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G8" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="I8" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -6816,10 +6872,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="V8" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6827,19 +6883,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G9" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I9" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -6875,10 +6931,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="V9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6886,16 +6942,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F10" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="G10" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H10" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -6932,33 +6988,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="V10" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Y10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G11" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H11" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -6995,33 +7051,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="V11" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Y11" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F12" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H12" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -7058,33 +7114,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="V12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Y12" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G13" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H13" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -7121,33 +7177,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="V13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Y13" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F14" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G14" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H14" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -7184,10 +7240,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="V14" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -7201,33 +7257,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H16" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I16" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -7238,18 +7294,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I17" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7260,18 +7316,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I18" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J18" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -7282,18 +7338,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I19" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J19" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -7304,18 +7360,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I20" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J20" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7326,18 +7382,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I21" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J21" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7348,13 +7404,13 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="I22" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J22" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -2493,14 +2493,13 @@
     <t>iam_menu_permission-76</t>
   </si>
   <si>
+    <t>devops-service.ci-site-template-job-group.listTemplateJobGroup</t>
+  </si>
+  <si>
     <t>iam_menu_permission-77</t>
   </si>
   <si>
     <t>iam_menu_permission-78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devops-service.ci-organization-template-step-category.pageTemplateStepCategory
-</t>
   </si>
   <si>
     <t>iam_menu_permission-79</t>
@@ -2976,8 +2975,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3051,40 +3050,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3095,9 +3063,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3111,39 +3092,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3155,8 +3114,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3172,16 +3132,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3194,8 +3155,46 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3277,7 +3276,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3289,49 +3414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3343,85 +3432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3433,31 +3456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3564,26 +3563,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3618,13 +3602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3632,8 +3620,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3661,163 +3649,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4283,8 +4281,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
     <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
@@ -4300,79 +4298,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="15"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="27"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4380,56 +4378,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="29" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4439,30 +4437,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -4470,7 +4468,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -4478,25 +4476,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4522,7 +4520,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -4638,7 +4636,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="5:24">
+    <row r="8" s="8" customFormat="1" spans="5:24">
       <c r="E8" t="s">
         <v>75</v>
       </c>
@@ -5038,8 +5036,8 @@
   <sheetPr/>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="O77" sqref="O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -5917,35 +5915,35 @@
         <v>249</v>
       </c>
       <c r="F76" t="str">
-        <f>菜单SAAS版!E14</f>
-        <v>iam_menu-157</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>194</v>
+        <f>菜单SAAS版!$E$10</f>
+        <v>iam_menu-153</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" t="s">
+        <v>251</v>
+      </c>
+      <c r="F77" t="str">
+        <f>菜单SAAS版!$E$14</f>
+        <v>iam_menu-157</v>
+      </c>
+      <c r="G77" t="s">
         <v>250</v>
-      </c>
-      <c r="F77" t="str">
-        <f>菜单SAAS版!$E$10</f>
-        <v>iam_menu-153</v>
-      </c>
-      <c r="G77" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F78" t="str">
         <f>菜单SAAS版!$E$10</f>
         <v>iam_menu-153</v>
       </c>
-      <c r="G78" s="7" t="s">
-        <v>252</v>
+      <c r="G78" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="5:7">
@@ -5953,18 +5951,18 @@
         <v>253</v>
       </c>
       <c r="F79" t="str">
-        <f>菜单SAAS版!E14</f>
+        <f>菜单SAAS版!$E$14</f>
         <v>iam_menu-157</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>226</v>
+      <c r="G79" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="80" spans="7:7">
-      <c r="G80" s="8"/>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" spans="7:7">
-      <c r="G81" s="8"/>
+      <c r="G81" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="410">
   <si>
     <r>
       <rPr>
@@ -2503,6 +2503,9 @@
   </si>
   <si>
     <t>iam_menu_permission-79</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-80</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2975,8 +2978,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3050,7 +3053,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3064,7 +3074,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3078,21 +3096,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3106,25 +3126,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3172,7 +3182,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3180,14 +3190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3276,31 +3279,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3318,37 +3303,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3366,7 +3345,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3378,7 +3399,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3390,31 +3435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3426,37 +3459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3563,15 +3566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3587,6 +3581,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3598,21 +3627,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3635,176 +3649,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5036,8 +5039,8 @@
   <sheetPr/>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="O77" sqref="O77"/>
+    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
@@ -5958,8 +5961,17 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="7:7">
-      <c r="G80" s="7"/>
+    <row r="80" spans="5:7">
+      <c r="E80" t="s">
+        <v>254</v>
+      </c>
+      <c r="F80" t="str">
+        <f>菜单SAAS版!$E$15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" s="7"/>
@@ -6023,66 +6035,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -6096,25 +6108,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J9" t="s">
+        <v>274</v>
+      </c>
+      <c r="K9" t="s">
         <v>273</v>
-      </c>
-      <c r="K9" t="s">
-        <v>272</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -6128,19 +6140,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -6154,19 +6166,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -6180,25 +6192,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -6212,22 +6224,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -6241,22 +6253,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -6270,22 +6282,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -6299,22 +6311,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -6328,25 +6340,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -6360,25 +6372,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -6392,25 +6404,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J19" t="s">
+        <v>303</v>
+      </c>
+      <c r="K19" t="s">
         <v>302</v>
-      </c>
-      <c r="K19" t="s">
-        <v>301</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -6424,19 +6436,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -6450,25 +6462,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -6482,25 +6494,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -6514,25 +6526,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -6546,19 +6558,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -6572,22 +6584,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J25" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -6601,22 +6613,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -6636,33 +6648,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6673,15 +6685,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6692,7 +6704,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6751,10 +6763,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6769,72 +6781,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="T7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -6870,10 +6882,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6881,19 +6893,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -6929,10 +6941,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="V9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6940,16 +6952,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -6986,33 +6998,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="V10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Y10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -7049,33 +7061,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="V11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -7112,33 +7124,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="V12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Y12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -7175,33 +7187,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="V13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Y13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -7238,10 +7250,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="V14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -7255,33 +7267,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -7292,18 +7304,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7314,18 +7326,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -7336,18 +7348,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -7358,18 +7370,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7380,18 +7392,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7402,13 +7414,13 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I22" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="411">
   <si>
     <r>
       <rPr>
@@ -2506,6 +2506,9 @@
   </si>
   <si>
     <t>iam_menu_permission-80</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-81</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2978,8 +2981,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3053,7 +3056,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3066,45 +3114,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3118,33 +3130,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3159,6 +3148,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3182,7 +3178,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3190,7 +3186,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3279,6 +3282,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3291,61 +3342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3357,19 +3354,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3387,19 +3384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3411,7 +3396,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3423,7 +3432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3435,31 +3450,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3566,80 +3569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3663,16 +3592,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3681,133 +3684,133 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4026,7 +4029,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4282,21 +4285,21 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5833333333333" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.3333333333333" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="3" max="3" width="28.0833333333333" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="5" max="5" width="38.5833333333333" customWidth="1"/>
+    <col min="6" max="6" width="23.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.5833333333333" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5833333333333" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.0833333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.0833333333333" customWidth="1"/>
     <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4311,7 +4314,7 @@
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="14"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -4325,7 +4328,7 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
@@ -4366,7 +4369,7 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
@@ -4391,7 +4394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
@@ -4423,7 +4426,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="32" t="s">
         <v>26</v>
       </c>
@@ -4446,7 +4449,7 @@
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="36" t="s">
         <v>31</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="36" t="s">
         <v>33</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="36" t="s">
         <v>35</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="36" t="s">
         <v>37</v>
       </c>
@@ -4496,7 +4499,7 @@
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="38" t="s">
         <v>43</v>
       </c>
@@ -4526,14 +4529,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="21.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="62.0814814814815" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="62.0833333333333" customWidth="1"/>
     <col min="7" max="7" width="16.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="16.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="15.9111111111111" customWidth="1"/>
-    <col min="16" max="16" width="17.0814814814815" customWidth="1"/>
+    <col min="11" max="11" width="15.9097222222222" customWidth="1"/>
+    <col min="16" max="16" width="17.0833333333333" customWidth="1"/>
     <col min="19" max="19" width="130.666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5039,14 +5042,15 @@
   <sheetPr/>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="B68" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
   <cols>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="17.2518518518519" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="68.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5973,8 +5977,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="81" spans="7:7">
-      <c r="G81" s="7"/>
+    <row r="81" ht="19" customHeight="1" spans="5:7">
+      <c r="E81" t="s">
+        <v>255</v>
+      </c>
+      <c r="F81" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>248</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5991,15 +6004,15 @@
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="4" max="4" width="22.4148148148148" customWidth="1"/>
-    <col min="5" max="5" width="21.162962962963" customWidth="1"/>
+    <col min="4" max="4" width="22.4166666666667" customWidth="1"/>
+    <col min="5" max="5" width="21.1597222222222" customWidth="1"/>
     <col min="7" max="7" width="17.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="15.7481481481481" customWidth="1"/>
-    <col min="9" max="9" width="13.1703703703704" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="13.1736111111111" customWidth="1"/>
     <col min="10" max="10" width="17.6666666666667" customWidth="1"/>
-    <col min="11" max="11" width="15.7481481481481" customWidth="1"/>
+    <col min="11" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6035,66 +6048,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -6108,25 +6121,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K9" t="s">
         <v>274</v>
-      </c>
-      <c r="K9" t="s">
-        <v>273</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -6140,19 +6153,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -6166,19 +6179,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -6192,25 +6205,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -6224,22 +6237,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J13" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -6253,22 +6266,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F14" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -6282,22 +6295,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -6311,22 +6324,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -6340,25 +6353,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -6372,25 +6385,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -6404,25 +6417,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J19" t="s">
+        <v>304</v>
+      </c>
+      <c r="K19" t="s">
         <v>303</v>
-      </c>
-      <c r="K19" t="s">
-        <v>302</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -6436,19 +6449,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -6462,25 +6475,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -6494,25 +6507,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -6526,25 +6539,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F23" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G23" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -6558,19 +6571,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -6584,22 +6597,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G25" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -6613,22 +6626,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -6648,33 +6661,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6685,15 +6698,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6704,7 +6717,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -6722,12 +6735,12 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="4" max="4" width="17.2518518518519" customWidth="1"/>
-    <col min="5" max="5" width="24.7481481481481" customWidth="1"/>
-    <col min="6" max="6" width="21.2518518518519" customWidth="1"/>
-    <col min="7" max="7" width="19.7481481481481" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="21.25" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6763,10 +6776,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6781,72 +6794,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="R7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="X7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Y7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -6882,10 +6895,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6893,19 +6906,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -6941,10 +6954,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="V9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6952,16 +6965,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -6998,33 +7011,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Y10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F11" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -7061,33 +7074,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="V11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Y11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -7124,33 +7137,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Y12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G13" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -7187,33 +7200,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="V13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Y13" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -7250,10 +7263,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="V14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -7267,33 +7280,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -7304,18 +7317,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I17" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J17" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7326,18 +7339,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -7348,18 +7361,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -7370,18 +7383,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7392,18 +7405,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I21" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7414,13 +7427,13 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J22" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="414">
   <si>
     <r>
       <rPr>
@@ -2974,6 +2974,15 @@
   </si>
   <si>
     <t>iam_role_permission-22</t>
+  </si>
+  <si>
+    <t>iam_role_permission-23</t>
+  </si>
+  <si>
+    <t>iam_role_permission-24</t>
+  </si>
+  <si>
+    <t>iam_role_permission-25</t>
   </si>
 </sst>
 </file>
@@ -2981,10 +2990,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3062,11 +3071,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3077,8 +3092,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3100,17 +3152,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3122,32 +3184,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3165,44 +3212,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3282,13 +3291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3300,7 +3309,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3312,121 +3429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3444,13 +3447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3462,7 +3465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3569,30 +3578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3604,39 +3589,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3658,6 +3610,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3666,151 +3642,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4029,7 +4038,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -4525,8 +4534,8 @@
   <sheetPr/>
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -5042,8 +5051,8 @@
   <sheetPr/>
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B68" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView topLeftCell="B71" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -6000,7 +6009,7 @@
   <sheetPr/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -6729,10 +6738,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
@@ -7436,6 +7445,72 @@
         <v>405</v>
       </c>
     </row>
+    <row r="23" spans="5:10">
+      <c r="E23" t="s">
+        <v>411</v>
+      </c>
+      <c r="F23" t="str">
+        <f>E8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="G23" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="H23" t="s">
+        <v>403</v>
+      </c>
+      <c r="I23" t="s">
+        <v>404</v>
+      </c>
+      <c r="J23" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10">
+      <c r="E24" t="s">
+        <v>412</v>
+      </c>
+      <c r="F24" t="str">
+        <f>E8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="G24" t="str">
+        <f>菜单SAAS版!E13</f>
+        <v>iam_menu-156</v>
+      </c>
+      <c r="H24" t="s">
+        <v>403</v>
+      </c>
+      <c r="I24" t="s">
+        <v>404</v>
+      </c>
+      <c r="J24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10">
+      <c r="E25" t="s">
+        <v>413</v>
+      </c>
+      <c r="F25" t="str">
+        <f>E8</f>
+        <v>iam_role-8</v>
+      </c>
+      <c r="G25" t="str">
+        <f>菜单SAAS版!E12</f>
+        <v>iam_menu-155</v>
+      </c>
+      <c r="H25" t="s">
+        <v>403</v>
+      </c>
+      <c r="I25" t="s">
+        <v>404</v>
+      </c>
+      <c r="J25" t="s">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/hzero-iam-business-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="416">
   <si>
     <r>
       <rPr>
@@ -2509,6 +2509,12 @@
   </si>
   <si>
     <t>iam_menu_permission-81</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-82</t>
+  </si>
+  <si>
+    <t>devops-service.ci-organization-template-variable.queryCiVariableByPipelineTemplateId</t>
   </si>
   <si>
     <t>标签表</t>
@@ -2990,10 +2996,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -3065,14 +3071,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3086,29 +3107,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3116,6 +3139,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3138,15 +3200,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3160,58 +3214,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3291,13 +3297,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3315,7 +3345,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3327,13 +3381,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3351,127 +3477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3578,6 +3584,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3589,6 +3637,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3610,30 +3673,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3642,184 +3681,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5049,10 +5055,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView topLeftCell="B71" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="6"/>
@@ -5996,6 +6002,18 @@
       </c>
       <c r="G81" s="7" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7">
+      <c r="E82" t="s">
+        <v>256</v>
+      </c>
+      <c r="F82" t="str">
+        <f>菜单SAAS版!E15</f>
+        <v>iam_menu-158</v>
+      </c>
+      <c r="G82" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -6057,66 +6075,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H8" t="s">
         <v>82</v>
       </c>
       <c r="I8" t="s">
+        <v>273</v>
+      </c>
+      <c r="J8" t="s">
+        <v>274</v>
+      </c>
+      <c r="K8" t="s">
         <v>271</v>
-      </c>
-      <c r="J8" t="s">
-        <v>272</v>
-      </c>
-      <c r="K8" t="s">
-        <v>269</v>
       </c>
       <c r="M8" t="s">
         <v>82</v>
@@ -6130,25 +6148,25 @@
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M9" t="s">
         <v>82</v>
@@ -6162,19 +6180,19 @@
     </row>
     <row r="10" spans="5:15">
       <c r="E10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H10" t="s">
         <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M10" t="s">
         <v>82</v>
@@ -6188,19 +6206,19 @@
     </row>
     <row r="11" spans="5:15">
       <c r="E11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H11" t="s">
         <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M11" t="s">
         <v>81</v>
@@ -6214,25 +6232,25 @@
     </row>
     <row r="12" spans="5:15">
       <c r="E12" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H12" t="s">
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M12" t="s">
         <v>82</v>
@@ -6246,22 +6264,22 @@
     </row>
     <row r="13" spans="5:15">
       <c r="E13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H13" t="s">
         <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M13" t="s">
         <v>81</v>
@@ -6275,22 +6293,22 @@
     </row>
     <row r="14" spans="5:15">
       <c r="E14" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M14" t="s">
         <v>81</v>
@@ -6304,22 +6322,22 @@
     </row>
     <row r="15" spans="5:15">
       <c r="E15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H15" t="s">
         <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J15" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M15" t="s">
         <v>81</v>
@@ -6333,22 +6351,22 @@
     </row>
     <row r="16" spans="5:15">
       <c r="E16" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F16" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H16" t="s">
         <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M16" t="s">
         <v>81</v>
@@ -6362,25 +6380,25 @@
     </row>
     <row r="17" spans="5:15">
       <c r="E17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F17" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H17" t="s">
         <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M17" t="s">
         <v>81</v>
@@ -6394,25 +6412,25 @@
     </row>
     <row r="18" spans="5:15">
       <c r="E18" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F18" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H18" t="s">
         <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J18" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K18" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M18" t="s">
         <v>81</v>
@@ -6426,25 +6444,25 @@
     </row>
     <row r="19" spans="5:15">
       <c r="E19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G19" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H19" t="s">
         <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J19" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M19" t="s">
         <v>82</v>
@@ -6458,19 +6476,19 @@
     </row>
     <row r="20" spans="5:15">
       <c r="E20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F20" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G20" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H20" t="s">
         <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M20" t="s">
         <v>82</v>
@@ -6484,25 +6502,25 @@
     </row>
     <row r="21" spans="5:15">
       <c r="E21" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F21" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G21" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H21" t="s">
         <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M21" t="s">
         <v>81</v>
@@ -6516,25 +6534,25 @@
     </row>
     <row r="22" spans="5:15">
       <c r="E22" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F22" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G22" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
         <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M22" t="s">
         <v>81</v>
@@ -6548,25 +6566,25 @@
     </row>
     <row r="23" spans="5:15">
       <c r="E23" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F23" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G23" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H23" t="s">
         <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M23" t="s">
         <v>81</v>
@@ -6580,19 +6598,19 @@
     </row>
     <row r="24" spans="5:15">
       <c r="E24" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H24" t="s">
         <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M24" t="s">
         <v>81</v>
@@ -6606,22 +6624,22 @@
     </row>
     <row r="25" spans="5:15">
       <c r="E25" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F25" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G25" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H25" t="s">
         <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J25" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M25" t="s">
         <v>81</v>
@@ -6635,22 +6653,22 @@
     </row>
     <row r="26" spans="5:15">
       <c r="E26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F26" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G26" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M26" t="s">
         <v>81</v>
@@ -6670,33 +6688,33 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I28" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -6707,15 +6725,15 @@
         <v>iam_label-12</v>
       </c>
       <c r="I29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F30" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -6726,7 +6744,7 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +6758,7 @@
   <sheetPr/>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -6785,10 +6803,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -6803,72 +6821,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="R7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="S7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="T7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="X7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Y7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="5:23">
       <c r="E8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J8" t="s">
         <v>79</v>
@@ -6904,10 +6922,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="V8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -6915,19 +6933,19 @@
     </row>
     <row r="9" spans="5:23">
       <c r="E9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G9" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="I9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="J9" t="s">
         <v>98</v>
@@ -6963,10 +6981,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="V9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -6974,16 +6992,16 @@
     </row>
     <row r="10" spans="5:25">
       <c r="E10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J10" t="s">
         <v>98</v>
@@ -7020,33 +7038,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="V10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Y10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="5:25">
       <c r="E11" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H11" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
@@ -7083,33 +7101,33 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="V11" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Y11" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="5:25">
       <c r="E12" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G12" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H12" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J12" t="s">
         <v>98</v>
@@ -7146,33 +7164,33 @@
         <v>81</v>
       </c>
       <c r="U12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="V12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="W12" t="s">
         <v>81</v>
       </c>
       <c r="X12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Y12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="5:25">
       <c r="E13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G13" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H13" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J13" t="s">
         <v>98</v>
@@ -7209,33 +7227,33 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="V13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="W13" t="s">
         <v>81</v>
       </c>
       <c r="X13" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Y13" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="5:23">
       <c r="E14" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H14" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J14" t="s">
         <v>79</v>
@@ -7272,10 +7290,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="V14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -7289,33 +7307,33 @@
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="5:10">
       <c r="E17" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F17" t="str">
         <f>角色!$E$8</f>
@@ -7326,18 +7344,18 @@
         <v>iam_menu-152</v>
       </c>
       <c r="H17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I17" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J17" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="5:10">
       <c r="E18" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F18" t="str">
         <f>角色!$E$10</f>
@@ -7348,18 +7366,18 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H18" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I18" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J18" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="19" spans="5:10">
       <c r="E19" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F19" t="str">
         <f>角色!$E$8</f>
@@ -7370,18 +7388,18 @@
         <v>iam_menu-153</v>
       </c>
       <c r="H19" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I19" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J19" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="5:10">
       <c r="E20" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F20" t="str">
         <f>角色!$E$8</f>
@@ -7392,18 +7410,18 @@
         <v>iam_menu-157</v>
       </c>
       <c r="H20" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I20" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J20" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="5:10">
       <c r="E21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F21" t="str">
         <f>角色!$E$10</f>
@@ -7414,18 +7432,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" spans="5:10">
       <c r="E22" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F22" t="str">
         <f>角色!$E$10</f>
@@ -7436,18 +7454,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H22" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I22" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J22" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="5:10">
       <c r="E23" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F23" t="str">
         <f>E8</f>
@@ -7458,18 +7476,18 @@
         <v>iam_menu-158</v>
       </c>
       <c r="H23" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I23" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J23" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="5:10">
       <c r="E24" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F24" t="str">
         <f>E8</f>
@@ -7480,18 +7498,18 @@
         <v>iam_menu-156</v>
       </c>
       <c r="H24" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I24" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J24" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="5:10">
       <c r="E25" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F25" t="str">
         <f>E8</f>
@@ -7502,13 +7520,13 @@
         <v>iam_menu-155</v>
       </c>
       <c r="H25" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I25" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="J25" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
